--- a/biology/Botanique/Mejhoul/Mejhoul.xlsx
+++ b/biology/Botanique/Mejhoul/Mejhoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phoenix dactylifera 'Medjool' · Medjoul
@@ -514,7 +526,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très apprécié lors de fêtes et autres cérémonies de mariages au Maroc et chez la diaspora marocaine, le mejhoul est souvent servi fourré aux amandes ou à la pâte d'amandes douces colorée ou non.
 Il est également très apprécié lors de la rupture du jeûne pendant le mois sacré de ramadan.
